--- a/subtable/按分量制拆分的子表/型/U13中级组女子个人型.xlsx
+++ b/subtable/按分量制拆分的子表/型/U13中级组女子个人型.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 3</t>
+          <t>赢的次数</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -461,15 +461,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>分量制</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>型</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>无差</t>
         </is>
@@ -491,25 +496,28 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>120103201309160065</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>71</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>U13女子中级组+60KG</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>U13中级组女子个人型</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>2013年女子组无差</t>
         </is>
@@ -531,27 +539,30 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>341321201301314520</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>40公斤</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>U13女子中级组+35KG</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>U13中级组女子个人型</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -569,27 +580,30 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>231121201203212188</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>43.3公斤</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>U13女子中级组-45KG</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>U13中级组女子个人型</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>2012年女子组无差</t>
         </is>
@@ -611,27 +625,30 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>231121201302132183</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>59公斤</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>U13女子中级组-60KG</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>U13中级组女子个人型</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>2013年女子组无差</t>
         </is>
@@ -653,27 +670,30 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>440982201303154565</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>40公斤</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>U13女子中级组+35KG</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>U13中级组女子个人型</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -691,27 +711,30 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>231121201305264827</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>55.5公斤</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>U13女子中级组-60KG</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>U13中级组女子个人型</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2013年女子组无差</t>
         </is>
@@ -733,27 +756,30 @@
           <t>女</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>410101201306030149</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>55公斤</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>U13女子中级组-60KG</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>U13中级组女子个人型</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>2013年女子组无差</t>
         </is>
